--- a/outputs/a/quote_types/list_q_c.xlsx
+++ b/outputs/a/quote_types/list_q_c.xlsx
@@ -11,22 +11,24 @@
     <sheet name="A02 vie saint barbre" sheetId="2" r:id="rId2"/>
     <sheet name="A03 vie saint basille" sheetId="3" r:id="rId3"/>
     <sheet name="A04 vie saint christofle" sheetId="4" r:id="rId4"/>
-    <sheet name="A06 saint jean evangeliste" sheetId="5" r:id="rId5"/>
-    <sheet name="A07 vie saint jean paulus" sheetId="6" r:id="rId6"/>
-    <sheet name="A08 vie glorieux confesseur" sheetId="7" r:id="rId7"/>
-    <sheet name="A09 vie saint leu" sheetId="8" r:id="rId8"/>
-    <sheet name="A11 vie saint sebastien" sheetId="9" r:id="rId9"/>
-    <sheet name="A12 miracle saint servais" sheetId="10" r:id="rId10"/>
-    <sheet name="A13 vie seint thibault" sheetId="11" r:id="rId11"/>
-    <sheet name="A16 guillaume angleterre" sheetId="12" r:id="rId12"/>
-    <sheet name="A17 robert deable" sheetId="13" r:id="rId13"/>
-    <sheet name="A18 richart sans peour" sheetId="14" r:id="rId14"/>
-    <sheet name="A19 elegy troyes" sheetId="15" r:id="rId15"/>
-    <sheet name="A20 vieillards tués" sheetId="16" r:id="rId16"/>
-    <sheet name="A21 mauvais riche homme" sheetId="17" r:id="rId17"/>
-    <sheet name="A22 jeu des dez" sheetId="18" r:id="rId18"/>
-    <sheet name="A23 roy avoit amie" sheetId="19" r:id="rId19"/>
-    <sheet name="A25 quatre sereurs" sheetId="20" r:id="rId20"/>
+    <sheet name="A05 vie sainte dieudonnee" sheetId="5" r:id="rId5"/>
+    <sheet name="A06 saint jean evangeliste" sheetId="6" r:id="rId6"/>
+    <sheet name="A07 vie saint jean paulus" sheetId="7" r:id="rId7"/>
+    <sheet name="A08 vie glorieux confesseur" sheetId="8" r:id="rId8"/>
+    <sheet name="A09 vie saint leu" sheetId="9" r:id="rId9"/>
+    <sheet name="A10 poines enfer" sheetId="10" r:id="rId10"/>
+    <sheet name="A11 vie saint sebastien" sheetId="11" r:id="rId11"/>
+    <sheet name="A12 miracle saint servais" sheetId="12" r:id="rId12"/>
+    <sheet name="A13 vie seint thibault" sheetId="13" r:id="rId13"/>
+    <sheet name="A16 guillaume angleterre" sheetId="14" r:id="rId14"/>
+    <sheet name="A17 robert deable" sheetId="15" r:id="rId15"/>
+    <sheet name="A18 richart sans peour" sheetId="16" r:id="rId16"/>
+    <sheet name="A19 elegy troyes" sheetId="17" r:id="rId17"/>
+    <sheet name="A20 vieillards tués" sheetId="18" r:id="rId18"/>
+    <sheet name="A21 mauvais riche homme" sheetId="19" r:id="rId19"/>
+    <sheet name="A22 jeu des dez" sheetId="20" r:id="rId20"/>
+    <sheet name="A23 roy avoit amie" sheetId="21" r:id="rId21"/>
+    <sheet name="A25 quatre sereurs" sheetId="22" r:id="rId22"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -1375,101 +1377,101 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>327</v>
+        <v>83</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>En la place est venue par dessous l'olivier.</t>
+          <t>Saint Pol se merveilla de l'angoisse torment</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Puis dist: “Vierge pucelle en qui Dieu descendy,</t>
+          <t>A saint Michiel demande: “Qui sunt or celle gent?”</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Confortés, douche dame, ceste chetive ycy.</t>
+          <t>Saint Michel li a dit sans nul delaiement:</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>410</v>
+        <v>189</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sitost que la juïfve revint de pasmesons,</t>
+          <t>“Qui est cele chaitive qui ce deservi a?”</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Le pecheresse dit: “Ma dame, nous yrons</t>
+          <t>Saint Michel li respont: “Ce vous dirai je ja:</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Par dessous l'olivier et si depryerons</t>
+          <t>Ce sunt li orgueilleus qui ont l'or et l'argent.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>419</v>
+        <v>346</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Par dessouss l'olivier prindrent a plourer fort.</t>
+          <t>Errent quatre diables orribles et hidous;</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Se dit la pecheresse: “Dieu, qui en crois fu mort,</t>
+          <t>Toz jorz vont criant: “Fames, sachiez Dex est venus;</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Envoiez nous briefment, biau sire, reconfort.”</t>
+          <t>Conoisés Jhesucrist et les sienes vertus.”</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>424</v>
+        <v>488</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>“Glorieuse vierge, pucelle, fleur de virginité,”</t>
+          <t>Saint Pol ala aprés, qui le cuide esgarder.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Se dist la pecheresse, “en qui par amytié</t>
+          <t>Saint Michiel dist: “Saint Pol, ci t'estuet arrester;</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Descendi le vray Dieu et print charnalité,</t>
+          <t>Tu ne porroies mie le torment esgarder.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>454</v>
+        <v>506</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Et sa fame et son filz de fons regenerés,</t>
+          <t>Qui iluec seront mis donc la puor issi?”</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Tantost a dit au peuple: “Douches gens, entendés,</t>
+          <t>Saint Michiel dist: “Saint Pol, entent a ma raison:</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Si plais, aveucques moy en mon jardin vendrés.</t>
+          <t>Cil qui i seront mis, n'aront ja raencon.</t>
         </is>
       </c>
     </row>
@@ -1479,6 +1481,336 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>line_n</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>prev_line</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>next_line</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>47</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Ses dens prist a estraindre, si com fust forsenez,</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Puis dit a ses serjans: “Faites toust, ci alez</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Querir Sebastïen et ci le m'amenez.”</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>53</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Mout felounessement le resgarda par despit,</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Puis dit: “Sebastïen, l'en m'a fet entendent</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Que ne prises Mahom qui sur touz est puissant</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>59</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Saint Sebastïen fist mener a ses ydoles.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Le tirant li dist: “Frere garde que ne t'afolles;</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Celx qui noz diex n'aourent ont bien lez testes folles.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>84</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Et te donray de terre assez plus que tu n'as.”</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Saint Sebastïen dit: “En vain tu te debas,</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Quar toutes tes richessez ne valent un festu</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>91</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Quant le tyrant l'oÿ, sy en out grant tourment,</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Forment li escria: “Mauves glouton pullant,</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Je te feray livrer a martire molt grant.”</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>105</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Au mestre palés vint, ne fut pas esperdus.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Au tirant dit en haust: “Personne dissolue,</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Mainte plaie mortele ay au jour d'ui sentue;</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>123</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Qui saint Sebastïen out pris a grant haïne,</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Li dit: “A tort te fes morir a discipline.”</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Le bon saint respondi, qui out pensee fine:</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>250</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Vous oez un proverbe souvent qui tout est voir,</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>C'est “Qui voit la meson de son voysin ardoir</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Pas ne doit en la sienne molt grant fiance avoir.”</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>line_n</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>prev_line</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>next_line</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>327</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>En la place est venue par dessous l'olivier.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Puis dist: “Vierge pucelle en qui Dieu descendy,</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Confortés, douche dame, ceste chetive ycy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>410</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Sitost que la juïfve revint de pasmesons,</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Le pecheresse dit: “Ma dame, nous yrons</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Par dessous l'olivier et si depryerons</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>419</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Par dessouss l'olivier prindrent a plourer fort.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Se dit la pecheresse: “Dieu, qui en crois fu mort,</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Envoiez nous briefment, biau sire, reconfort.”</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>424</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>“Glorieuse vierge, pucelle, fleur de virginité,”</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Se dist la pecheresse, “en qui par amytié</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Descendi le vray Dieu et print charnalité,</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>454</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Et sa fame et son filz de fons regenerés,</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Tantost a dit au peuple: “Douches gens, entendés,</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Si plais, aveucques moy en mon jardin vendrés.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -1633,9 +1965,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1665,1481 +1997,1621 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le roy percut moult bien qu'estoit apesantie</t>
+          <t>Il ne doit pas grans fais desus son col porter;</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Quant matines sonnerent il li dist “Douce amie</t>
+          <t>Et c'est escript c'un riche qui ne veult dire “Tien,”</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Je m'en vois a l'eglisse mes pour Dieu je vous prie</t>
+          <t>N'enterroit en la gloire ou Dieu maint et li sien,</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Et Dieus ne me gardoit hors de mon sens ystroie”</t>
+          <t>Le roy percut moult bien qu'estoit apesantie;</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>La dame respondi “Chier sire je l'ostroie</t>
+          <t>Quant matines sonnerent, il li dist “Douce amie,</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Car vostre voulenté si doit estre la moie”</t>
+          <t>Je m'en vois a l'eglisse; mes pour Dieu je vous prie</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Avec celle clarté descendi une vois</t>
+          <t>Et Dieus ne me gardoit, hors de mon sens ystroie.”</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Qui dist au roy Guillaume “Moult es lié quant tu vois</t>
+          <t>La dame respondi: “Chier sire, je l'ostroie,</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Que ta fame est ensainte mes ce ne vault un pois</t>
+          <t>Car vostre voulenté si doit estre la moie.”</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Que vous le fassiez rendre cil qui fu sans disfame”</t>
+          <t>Avec celle clarté descendi une vois,</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Li dist “Je le weil bien foy que doy Nostre Dame”</t>
+          <t>Qui dist au roy Guillaume: “Moult es lié quant tu vois</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Il fist par Engleterre crier tout d'un acort</t>
+          <t>Que ta fame est ensainte; mes ce ne vault un pois;</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Quant son comfessour ot la parole entendue</t>
+          <t>Que vous le fassiez rendre.” Cil qui fu sans disfame,</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Il li a dist “Chier sire c'est bien chose seue</t>
+          <t>Li dist: “Je le weil bien, foy que doy Nostre Dame!”</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Que l'escripture dit c'om doit pour Dieu laissier</t>
+          <t>Il fist par Engleterre crier tout d'un acort</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Revint le mesagier au roy de paradis</t>
+          <t>Mes la clarté se mist dedens la chambre ancois.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Qui apella le roy  en dissant “Fous nais</t>
+          <t>Hautement a parlé, et dist: “Guillaume roys,</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Va t'en hors d'Engleterre en essil il le faut</t>
+          <t>Voir, il te mescherra briément, ce ne mécrois.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>186</v>
+        <v>140</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Adonques la roine aus piez du roy chai</t>
+          <t>Quant son comfessour ot la parole entendue,</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Et li a dit “Chier sire pour Dieu qui ne menti</t>
+          <t>Il li a dist: “Chier sire, c'est bien chose seüe</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>J'ai bien la vois oïe qui par .iii. fois vint ci</t>
+          <t>Que l'escripture dit c'om doit pour Dieu laissier</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Vous alez en essil mes sans moi n'irés mie”</t>
+          <t>Revint le mesagier au roy de paradis,</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Quant le roy l'entandi si li dist “Douce ami</t>
+          <t>Qui apella le roy en dissant: “Fous naïs,</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Pour Dieu parlés plus bas que ne soiez oïe</t>
+          <t>Va t'en hors d'Engleterre en essil, il le faut;</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Pour rien ne me pourroie de leur mains eschaper”</t>
+          <t>Bien cuida que la dame dormist a celle fois,</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>La dame dist “Franc roi trop avez fol penser</t>
+          <t>Bas dist en soupirant: “Douce suer, je m'en vois;</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Ne pourroie sans vous en vie demourer</t>
+          <t>Douce ami loiale, jamés ne vous verré</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Baissa lors la roine en lermes et en pleurs</t>
+          <t>Adonques la roïne aus piez du roy chaï</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Puis li dist “Douce suer se je vous enmenoie</t>
+          <t>Et li a dit: “Chier sire, pour Dieu qui ne menti,</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Le fruit de vostre corps et vous meismes perdroie”</t>
+          <t>J'ai bien la vois oïe qui par trois fois vint ci.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Le fruit de vostre corps et vous meismes perdroie”</t>
+          <t>Vous alez en essil; mes sans moi n'irés mie.”</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Elle li respondi “Et se je demouroie</t>
+          <t>Quant le roy l'entandi, si li dist: “Douce ami,</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Je suis toute certaine que de duel m'ocirroie”</t>
+          <t>Pour Dieu, parlés plus bas, que ne soiez oïe;</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Je suis toute certaine que de duel m'ocirroie”</t>
+          <t>Pour rien ne me pourroie de leur mains eschaper.”</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Lors li dist le roy “Dame soit a vostre plessir</t>
+          <t>La dame dist: “Franc roi, trop avez fol penser.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Mes l'ui de nostre chambre n'osserions ouvrir</t>
+          <t>Ne pourroie sans vous en vie demourer.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>255</v>
+        <v>201</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>En soupirant forment en apella le roy</t>
+          <t>Baissa lors la roïne en lermes et en pleurs;</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Plus li a dit “Gardes cest anel de par moi”</t>
+          <t>Puis li dist: “Douce suer, se je vous enmenoie,</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Et issi respondi “Voulentiers par ma foi”</t>
+          <t>Le fruit de vostre corps et vous meismes perdroie.”</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>256</v>
+        <v>203</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Plus li a dit “Gardes cest anel de par moi”</t>
+          <t>Le fruit de vostre corps et vous meismes perdroie.”</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Et issi respondi “Voulentiers par ma foi”</t>
+          <t>Elle li respondi: “Et se je demouroie,</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Le roi recut l'anel par la main de s'amie</t>
+          <t>Je suis toute certaine que de duel m'ocirroie.”</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>261</v>
+        <v>205</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Pour l'amour de Dieu orent grant planté de hachie</t>
+          <t>Je suis toute certaine que de duel m'ocirroie.”</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Le roy dist a la dame “Voir trop sui courouciez</t>
+          <t>Lors li dist le roy: “Dame, soit a vostre plessir;</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Que ne puis trouver fame dont vo corps soit aidiez”</t>
+          <t>Mes l'ui de nostre chambre n'osserions ouvrir.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>263</v>
+        <v>218</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Que ne puis trouver fame dont vo corps soit aidiez”</t>
+          <t>Et la chambre virent, qui fu bien close,</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Elle dist “Mon seingneur or ne vous esmaiés</t>
+          <t>Li un a dist a l'autre: “Monseigneur se reposse.”</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Alons a celle roche sans estre delaiez”</t>
+          <t>Quant le soulail fu haut, chascun dist et proposse</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Le roi requist de cuer le pere souverain</t>
+          <t>En soupirant forment en apella le roy,</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Lors la dame li dist “Sire soies certain</t>
+          <t>Plus li a dit: “Gardés cest anel de par moi.”</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Que l'un de mes enfans mengier me covendra</t>
+          <t>Et issi respondi: “Voulentiers, par ma foi!”</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Pour donner ala dame qu'il amoit de cuer bon</t>
+          <t>Plus li a dit: “Gardés cest anel de par moi.”</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Mes la dame li dist “Pour Dieu chier sire non”</t>
+          <t>Et issi respondi: “Voulentiers, par ma foi!”</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Par le poing le saisse puis dist “J'estrai du sens</t>
+          <t>Le roi recut l'anel par la main de s'amie;</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Mes la dame li dist “Pour Dieu chier sire non”</t>
+          <t>Pour l'amour de Dieu orent grant planté de hachie.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Par le poing le saisse puis dist “J'estrai du sens</t>
+          <t>Le roy dist a la dame: “Voir, trop sui courouciez</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Se je vous voi couper ja se Dieu plest mes dens</t>
+          <t>Que ne puis trouver fame dont vo corps soit aidiez.”</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>339</v>
+        <v>263</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>En un crués d'une roche la gist toute afanmee</t>
+          <t>Que ne puis trouver fame dont vo corps soit aidiez.”</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>L'un des marchéans dist “Voir belle la trouvee</t>
+          <t>Elle dist: “Mon seingneur, or ne vous esmaiés</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Par ce point cuide avoir l'aumosne recouvree”</t>
+          <t>Alons a celle roche sans estre delaiez.”</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>352</v>
+        <v>284</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>La dame debonnaire et ces petis enfans</t>
+          <t>Le roi requist de cuer le Pere souverain.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Il leur a dit “Seingneur je ne sui pas mentans</t>
+          <t>Lors la dame li dist: “Sire, soiés certain</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Vés ici ma famme et mes enfans petis”</t>
+          <t>Que l'un de mes enfans mengier me covendra,</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>357</v>
+        <v>292</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>L'un d'eus qui estoit plains des ars aus anemis</t>
+          <t>Pour donner a la dame, qu'il amoit de cuer bon;</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Dist au roy “Faus truant on vous devroit bien pendre</t>
+          <t>Mes la dame li dist: “Pour Dieu, chier sire, non.”</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Quant avec vous gist fame si douce et si tandre</t>
+          <t>Par le poing le saisse, puis dist: “J'estrai du sens,</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>369</v>
+        <v>293</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>On te donra assés tant com tu les avras”</t>
+          <t>Mes la dame li dist: “Pour Dieu, chier sire, non.”</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>La dame s'escria “Pour Dieu soiez nous dous</t>
+          <t>Par le poing le saisse, puis dist: “J'estrai du sens,</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Je vous jure sur sains que c'est mon drois espous”</t>
+          <t>Se je vous voi couper. Ja, se Dieu plest, mes dens</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>371</v>
+        <v>296</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Je vous jure sur sains que c'est mon drois espous”</t>
+          <t>N'usseront vostre char.” Le roi, qui fu dolens,</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Les gloutons distrent “Fole et pourquoi mentez vous”</t>
+          <t>Respondi: “Douce suer, ne puis trouver pourpens</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Lors se pasma de duel la dame devant tous</t>
+          <t>Par quel point vostre fain puist estre rapaissie.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>378</v>
+        <v>302</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Il prist une bourcete qui fu de rouge soie</t>
+          <t>De la pitié qu'elle ot fu sa fain tresalee.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>.V. florins mist dedens au roy dist “Je te proie</t>
+          <t>Adonques dist au roy: “S'il vous plest et agree,</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Que plus ne te combates la force n'est pas toie</t>
+          <t>Alés querre du pain. Toute sui trespassee;</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>415</v>
+        <v>339</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>De bon cuer en louerent le dous pere puissant</t>
+          <t>En un crués d'une roche, la gist toute afanmee.”</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>L'un d'eus a dit aus autres “Seingneurs je vous demant</t>
+          <t>L'un des marcheans dist: “Voir, belle la trouvee;</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Que cest enfant soit mien et je vous acrëant</t>
+          <t>Par ce point cuide avoir l'aumosne recouvree.”</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>418</v>
+        <v>341</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Que bien sera nourri se Jhesucrist me gart”</t>
+          <t>Par ce point cuide avoir l'aumosne recouvree.”</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Chascun des autres dist “Je vous en quit ma part”</t>
+          <t>Le mestre de la nef a dit: “Or entendon.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Lors le prist le preudomme  et jura Saint Liénart</t>
+          <t>Par foy, savoir voudrai se il dit voir ou non.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>443</v>
+        <v>352</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Lors li doubla son duel quant sa perte a choissie</t>
+          <t>La dame debonnaire et ces petis enfans;</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Forment prist apleurer et dist “Vierge Marie</t>
+          <t>Il leur a dit: “Seingneur, je ne sui pas mentans;</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Or ai je tout perdu” lors vint celle partie</t>
+          <t>Vés ici ma famme et mes enfans petis.”</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>517</v>
+        <v>357</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Bien a des marchéans tout l'estrif entendu</t>
+          <t>L'un d'eus, qui estoit plains des ars aus anemis,</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Hautement leur a dit “Ne vous combatez pas</t>
+          <t>Dist au roy: “Faus truant, on vous devroit bien pendre,</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>La dame sera moie pour qui muet li debas</t>
+          <t>Quant avec vous gist fame si douce et si tandre.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>540</v>
+        <v>369</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Le bon roy d'Engleterre son tres loial ami</t>
+          <t>On te donra assés, tant com tu les avras.”</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Et ces petis enfans tout bas dist “Dieu merci</t>
+          <t>La dame s'escria: “Pour Dieu, soiez nous dous!</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Je ne sai que respondre voir miex mourir voudroie</t>
+          <t>Je vous jure sur sains que c'est mon drois espous.”</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>543</v>
+        <v>371</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Que la char de cest homme atouchast a la moie”</t>
+          <t>Je vous jure sur sains que c'est mon drois espous.”</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Lors dist la roine “Sire pas ne seroie</t>
+          <t>Les gloutons distrent: “Fole, et pourquoi mentez vous?”</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Digne a vous deschaucier voulentiers vous diroie</t>
+          <t>Lors se pasma de duel la dame devant tous.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>552</v>
+        <v>378</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Celui qui ot son cuer en la roine mis</t>
+          <t>Il prist une bourcete qui fu de rouge soie,</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Li respondi “Ma suer ce ne vaut .ii. espis</t>
+          <t>Cinq florins mist dedens, au roy dist: “Je te proie</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Ne me chaut qu'aiez fait mes que d'ore en avant</t>
+          <t>Que plus ne te combates, la force n'est pas toie.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>556</v>
+        <v>415</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Lors sa la la roine d'autre engin a pensant</t>
+          <t>De bon cuer en louerent le dous Pere puissant.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Au chevalier a dit “Sire je vous crëant</t>
+          <t>L'un d'eus a dit aus autres: “Seingneurs, je vous demant</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Se je vous refusoie se ceroit grant despit</t>
+          <t>Que cest enfant soit mien; et je vous acreant</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>564</v>
+        <v>418</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Adont me pourres vous s'il vous plest espouser”</t>
+          <t>Que bien sera nourri, se Jhesucrist me gart.”</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Le sire dist “M'amie ne vous en faut doubter</t>
+          <t>Chascun des autres dist: “Je vous en quit ma part.”</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Je vous espouserai pour ce ne lerai mie</t>
+          <t>Lors le prist le preudomme, et jura Saint Liénart</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>591</v>
+        <v>443</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Mieus sembloit mort que vif quant d'eus aprochés fu</t>
+          <t>Lors li doubla son duel, quant sa perte a choissie;</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Doucement dist “Seingneur el non du dous ihesus</t>
+          <t>Forment prist a pleurer et dist: “Vierge Marie,</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Metez moi en vos nef” l'un d'eus a respondu</t>
+          <t>Or ai je tout perdu.” Lors vint celle partie</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>610</v>
+        <v>517</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Au roi vin si le mist doucement a raison</t>
+          <t>Bien a des marcheans tout l'estrif entendu;</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>En dissant “Biaus amis comment avez vous non”</t>
+          <t>Hautement leur a dit: “Ne vous combatez pas;</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Adont souvine au roy de la desfancion</t>
+          <t>La dame sera moie, pour qui muet li debas.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>616</v>
+        <v>540</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Le bourgois qui estoit ou pais moult prisié</t>
+          <t>Le bon roy d'Engleterre, son tres loial ami,</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Li dit “Guis biaus amis j'ai de toi grant pitié</t>
+          <t>Et ces petis enfans; tout bas dist: “Dieu merci!</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Pour ce que t'ai veü si tendrement pleurer</t>
+          <t>Je ne sai que respondre; voir, miex mourir voudroie</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>620</v>
+        <v>543</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Avec moi te pourroies de tes maus respasser”</t>
+          <t>Que la char de cest homme atouchast a la moie.”</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Le roy respondi “Sire je m'en puis bien venter</t>
+          <t>Lors dist la roïne: “Sire, pas ne seroie</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Que d'atourner chevaus bien la guisse savon”</t>
+          <t>Digne a vous deschaucier; voulentiers vous diroie</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>647</v>
+        <v>552</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Par un matin le fist de son lit descouchier</t>
+          <t>Celui qui ot son cuer en la roïne mis,</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Puis li a dit “Il faut que soies peletier”</t>
+          <t>Li respondi: “Ma suer, ce ne vaut deus espis.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>L'anfant li respondi “Ja merler ne m'en quier</t>
+          <t>Ne me chaut qu'aiez fait, mes que d'ore en avant</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>648</v>
+        <v>556</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Puis li a dit “Il faut que soies peletier”</t>
+          <t>Lors s'ala la roïne d'autre engin apensant,</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>L'anfant li respondi “Ja merler ne m'en quier</t>
+          <t>Au chevalier a dit: “Sire, je vous creant,</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Par foi ja ne coudrai mantiau ne pelicon</t>
+          <t>Se je vous refusoie, se ceroit grant despit;</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>653</v>
+        <v>564</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Errant prist une verge s'en bati l'enfancon</t>
+          <t>Adont me pourrés vous, s'il vous plest, espouser.”</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Par despit l'apella “Mauvés garcon trouvé</t>
+          <t>Le sire dist: “M'amie, ne vous en faut doubter.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Coment ose tu dire contre ma voulenté</t>
+          <t>Je vous espouserai, pour ce ne lerai mie;</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>671</v>
+        <v>591</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Le marchéant li geta l'autre pan a visage</t>
+          <t>Mieus sembloit mort que vif. Quant d'eus aprochés fu,</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Et li dist par despit “Tien vés la biau gage</t>
+          <t>Doucement dist: “Seingneur, el non du dous Jhesus,</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Ou gissoies quant fus rescous au leu sauvage”</t>
+          <t>Metez moi en vos nef.” L'un d'eus a respondu:</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>674</v>
+        <v>610</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Lors quant le filz le roy le marchant entendi</t>
+          <t>Au roi vin, si le mist doucement a raison</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Au marchéant a dit “Sire pour Dieu merci</t>
+          <t>En dissant: “Biaus amis, comment avez vous non?”</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Voir bien me devez batre pas ne vous en desdi</t>
+          <t>Adont souvint au roy de la desfancion</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>680</v>
+        <v>616</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Forment se repenti qu'il l'avoit fet pleurer</t>
+          <t>Le bourgois, qui estoit ou pais moult prisié,</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Doucement li a dit “Mon enfant lai ester</t>
+          <t>Li dit: “Guis, biaus amis, j'ai de toi grant pitié,</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Pour toi chastier ai ceste bourde trouvee</t>
+          <t>Pour ce que t'ai veü si tendrement pleurer.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>683</v>
+        <v>620</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Voir tu es mon droit filz plus t'ainme que rien nee”</t>
+          <t>Avec moi te pourroies de tes maus respasser.”</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>L'anfant li dist “Dous sire par la vierge honnoree</t>
+          <t>Le roy respondi: “Sire, je m'en puis bien venter,</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Ne pourroie plus faire ci endroit demouree</t>
+          <t>Que d'atourner chevaus bien la guisse savon.”</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>696</v>
+        <v>647</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Puis li a demandé pourquoi ainsi s'en va</t>
+          <t>Par un matin le fist de son lit descouchier,</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>L'autre enfant respondi “Compains vous l'orrés ja</t>
+          <t>Puis li a dit: “Il faut que soies peletier.”</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Ne vos mestier aprendre si que on me bati”</t>
+          <t>L'anfant li respondi: “Ja merler ne m'en quier;</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>698</v>
+        <v>648</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Ne vos mestier aprendre si que on me bati”</t>
+          <t>Puis li a dit: “Il faut que soies peletier.”</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Li autres dist “Compains avenu m'est ainsi”</t>
+          <t>L'anfant li respondi: “Ja merler ne m'en quier;</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Cil qui fu a cheval a terre descendi</t>
+          <t>Par foi, ja ne coudrai mantiau ne pelicon,</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>700</v>
+        <v>653</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Cil qui fu a cheval a terre descendi</t>
+          <t>Errant prist une verge, s'en bati l'enfancon;</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Et a dit a son frere “Lëaument vous afi</t>
+          <t>Par despit l'apella: “Mauvés garcon trouvé,</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Que je ne vous faudrai jamais pour nulle rien”</t>
+          <t>Coment ose tu dire contre ma voulenté?</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>717</v>
+        <v>671</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Quant il vit les enfans il en quist que c'estoit</t>
+          <t>Le marcheant li geta l'autre pan a visage,</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Le fortier dist “Sire bersant vont par le bois</t>
+          <t>Et li dist par despit: “Tien, vés la biau gage,</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Ceste beste ont tuee” le seingneur fu courtois</t>
+          <t>Ou gissoies quant fus rescous au leu sauvage.”</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>719</v>
+        <v>674</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ceste beste ont tuee” le seingneur fu courtois</t>
+          <t>Lors quant le filz le roy le marchant entendi,</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Il dist “Je leur pardoins pour Dieu a ceste fois</t>
+          <t>Au marcheant a dit: “Sire, pour Dieu merci!</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Mes je weil qu'il demeurent en mon hostel un mois”</t>
+          <t>Voir bien me devez batre, pas ne vous en desdi.</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>744</v>
+        <v>680</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Quant le vouloit huchier ne l'apeloit fors Gui</t>
+          <t>Forment se repenti qu'il l'avoit fet pleurer;</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Il l'apella un jour et dist “Gui mon ami</t>
+          <t>Doucement li a dit: “Mon enfant, lai ester;</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Vous estez loiaus hons bien vous ai essaié</t>
+          <t>Pour toi chastier ai ceste bourde trouvee.</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>764</v>
+        <v>683</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Vint souls en esterlins l'en ala le roy tendre</t>
+          <t>Voir, tu es mon droit filz, plus t'ainme que rien nee.”</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Cil qui recut l'argent li a dit “Rendre ou pendre</t>
+          <t>L'anfant li dist: “Dous sire: par la Vierge honnoree,</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Quar voir je n'ai nul droit en ces esterlins ci</t>
+          <t>Ne pourroie plus faire ci endroit demouree.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>779</v>
+        <v>696</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>L'un le moustroit a l'autre tout coiement au doit</t>
+          <t>Puis li a demandé pourquoi ainsi s'en va.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Et puis s'entredissoient “Cel marchéant que la voy</t>
+          <t>L'autre enfant respondi: “Compains, vous l'orrés ja.</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Resemble au roy Guillaume par la foi qu'a Dieu doi”</t>
+          <t>Ne vos mestier aprendre, si que on me bati.”</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>784</v>
+        <v>698</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>S'en vint droit a son oncle moult doucement parler</t>
+          <t>Ne vos mestier aprendre, si que on me bati.”</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>En dissant “Tres dous sire je vous viens demander</t>
+          <t>Li autres dist: “Compains, avenu m'est ainsi.”</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>S'estes le roy Guillaume par amour sire dous</t>
+          <t>Cil qui fu a cheval a terre descendi,</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>790</v>
+        <v>700</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Quant l'oncle ot le neveu si faitement parler</t>
+          <t>Cil qui fu a cheval a terre descendi,</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Il li a dist “Biau sire pour Dieu lessiés ester</t>
+          <t>Et a dit a son frere: “Lëaument vous afi</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Je ne sui pas venus ci endroit pour moquier</t>
+          <t>Que je ne vous faudrai jamais pour nulle rien.”</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>795</v>
+        <v>717</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Quar les .xxet quatre ans n'estoient pas passez</t>
+          <t>Quant il vit les enfans, il en quist que c'estoit.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>A son neveu a dit “Biau sire or entendés</t>
+          <t>Le fortier dist: “Sire, bersant vont par le bois;</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Se le roy revenoit de quoy vous me parlés</t>
+          <t>Ceste beste ont tuee.” Le seingneur fu courtois,</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>817</v>
+        <v>719</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>L'annel qu'il ot el doi a bien reconneü</t>
+          <t>Ceste beste ont tuee.” Le seingneur fu courtois,</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>La dame vint au roy et li a dit “Moult bel</t>
+          <t>Il dist: “Je leur pardoins, pour Dieu, a ceste fois;</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Sire se vous voulés aquiter cest vessel</t>
+          <t>Mes je weil qu'il demeurent en mon hostel un mois.”</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>822</v>
+        <v>744</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Le roy ot moult grant duel quant ce mot endenti</t>
+          <t>Quant le vouloit huchier, ne l'apeloit fors Gui.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Puis a dit a la dame “Vous avez mal choisi</t>
+          <t>Il l'apella un jour et dist: “Gui, mon ami,</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Cëans a tel jouel qui vault je vous afi</t>
+          <t>Vous estez loiaus hons, bien vous ai essaié.</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>835</v>
+        <v>764</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Le roy entre ces bras l'en a levee sus</t>
+          <t>Vint souls en esterlins l'en ala le roy tendre.</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Puis li dist “Chiere dame pour Dieus qui maint la sus</t>
+          <t>Cil, qui recut l'argent, li a dit: “Rendre ou pendre;</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>De quoi est vostre cuer si forment esperdus”</t>
+          <t>Quar, voir, je n'ai nul droit en ces esterlins ci.</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>837</v>
+        <v>779</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>De quoi est vostre cuer si forment esperdus”</t>
+          <t>L'un le moustroit a l'autre tout coiement au doit,</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>La dame li dist “Sire se Jhesu me pourvoie</t>
+          <t>Et puis s'entredissoient: “Cel marcheant que la voy</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Mon cuer est esperdus de courrous et de joie</t>
+          <t>Resemble au roy Guillaume, par la foi qu'a Dieu doi.”</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>844</v>
+        <v>784</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Le pueple ot grant joie quant il sot leur couvine</t>
+          <t>S'en vint droit a son oncle moult doucement parler</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Le roy dist a la dame “Sur j'ai grant envie</t>
+          <t>En dissant: “Tres dous sire, je vous viens demander</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Qu'allons en Angleterre le pais renonmé</t>
+          <t>S'estes le roy Guillaume, par amour, sire dous:</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>853</v>
+        <v>790</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Qu'alast el bois chacier que merveilles estoit</t>
+          <t>Quant l'oncle ot le neveu si faitement parler,</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>La dame li dist “Sire puis qu'avez celle envie</t>
+          <t>Il li a dist: “Biau sire, pour Dieu, lessiés ester.</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>D'aler el bois chacier par fine amour vous prie</t>
+          <t>Je ne sui pas venus ci endroit pour moquier,</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>857</v>
+        <v>795</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>C'est la terre d'un conte qui trop fort me guerrie”</t>
+          <t>Quar les vint et quatre ans n'estoient pas passez;</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Le roi li a dist “Dame ne vous en doutez ja</t>
+          <t>A son neveu a dit: “Biau sire, or entendés:</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>N'irai gueres avant que retournerai ca”</t>
+          <t>Se le roy revenoit de quoy vous me parlés,</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>864</v>
+        <v>822</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Deus chevaliers armés sous un arbre choisi</t>
+          <t>Le roy ot moult grant duel quant ce mot entendi,</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Qui li crierent “Mestre vous passerés par ci</t>
+          <t>Puis a dit a la dame: “Vous avez mal choisi.</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Par foi vous valez mort se vous ne vous rendez”</t>
+          <t>Cëans a tel jouel qui vault, je vous afi,</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>866</v>
+        <v>826</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Par foi vous valez mort se vous ne vous rendez”</t>
+          <t>“Je ne weil que l'annel.” Adont le roy li tant;</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Lors le roy respondi “Voir s'a moi main metez</t>
+          <t>En soupirant li dist: “Je vous jur lëaument</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Je vous jure sus sains vous en repentirés”</t>
+          <t>C'onques mes en ma vie je ne fui si dolent,</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>868</v>
+        <v>835</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Je vous jure sus sains vous en repentirés”</t>
+          <t>Le roy entre ces bras l'en a levee sus,</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>L'un des chevaliers dist “Tu es un fol prouvés</t>
+          <t>Puis li dist: “Chiere dame, pour Dieus qui maint la sus,</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>En nostre dangier es et nous vas menacent</t>
+          <t>De quoi est vostre cuer si forment esperdus?”</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>871</v>
+        <v>837</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Pres va que ne te fier de mon espie tranchant”</t>
+          <t>De quoi est vostre cuer si forment esperdus?”</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Le roy leur respondi “Au mains sousfrés vous tant</t>
+          <t>La dame li dist: “Sire, se Jhesu me pourvoie,</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Que vous aie conté quel chose vois quérant</t>
+          <t>Mon cuer est esperdus de courrous et de joie;</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>887</v>
+        <v>844</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Ou pan d'unne viez cote estoies enuelopé”</t>
+          <t>Le pueple ot grant joie quant il sot leur couvine.</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>L'autre chevalier dist “Voir et je fui trouvé</t>
+          <t>Le roy dist a la dame: “Sur, j'ai grant envie</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>En un batel sur mer si comme on m'a conté</t>
+          <t>Qu'allons en Angleterre, le païs renonmé.</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>891</v>
+        <v>853</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Quant le roi les oÿ au cuer en ot grant joie</t>
+          <t>Qu'alast el bois chacier, que merveilles estoit.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Puis a dit “Biaus enfans se les pieces vëoie</t>
+          <t>La dame li dist: “Sire, puis qu'avez celle envie</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Ou couchai mes enfans moult bien les connoistroie”</t>
+          <t>D'aler el bois chacier, par fine amour vous prie</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>893</v>
+        <v>857</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Ou couchai mes enfans moult bien les connoistroie”</t>
+          <t>C'est la terre d'un conte qui trop fort me guerrie.”</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>S'un des enfans a dit “Se venez avec moy</t>
+          <t>Le roi li a dist: “Dame, ne vous en doutez ja;</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>La piece ou fu couchié vous mousterrai par foy”</t>
+          <t>N'irai gueres avant, que retournerai ca.”</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>895</v>
+        <v>864</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>La piece ou fu couchié vous mousterrai par foy”</t>
+          <t>Deus chevaliers armés sous un arbre choisi,</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>L'autre chevalier dist “Par la foi qu'a Dieu doy</t>
+          <t>Qui li crierent: “Mestre, vous passerés par ci;</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Bien sai ou est la moie freres sommes en doy”</t>
+          <t>Par foi, vous valez mort, se vous ne vous rendez.”</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>900</v>
+        <v>866</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Chascun d'eus trait la piece dont je vous ai fet conte</t>
+          <t>Par foi, vous valez mort, se vous ne vous rendez.”</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Le roy les vit puis dist “Vray Dieu qui tout surmonte</t>
+          <t>Lors le roy respondi: “Voir, s'a moi main metez,</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>On vous doit bien louer tres dous peres puissans</t>
+          <t>Je vous jure sus sains, vous en repentirés.”</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>912</v>
+        <v>868</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Se li avez mesfait requéres li pardon”</t>
+          <t>Je vous jure sus sains, vous en repentirés.”</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Les enfans respondirent “Vostre commant feron”</t>
+          <t>L'un des chevaliers dist: “Tu es un fol prouvés.</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Le pere et les enfans murent sans plus parler</t>
+          <t>En nostre dangier es, et nous vas menacent!</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75">
+        <v>871</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Pres va que ne te fier de mon espie tranchant.”</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Le roy leur respondi: “Au mains sousfrés vous tant</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Que vous aie conté quel chose vois querant.</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>887</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Ou pan d'unne viez cote estoies envelopé.”</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>L'autre chevalier dist: “Voir, et je fui trouvé</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>En un batel sur mer, si comme on m'a conté;</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>891</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Quant le roi les oÿ, au cuer en ot grant joie;</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Puis a dit: “Biaus enfans, se les pieces vëoie</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Ou couchai mes enfans, moult bien les connoistroie.”</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>893</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Ou couchai mes enfans, moult bien les connoistroie.”</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>S'un des enfans a dit: “Se venez avec moy,</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>La piece ou fu couchié vous mousterrai par foy.”</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>895</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>La piece ou fu couchié vous mousterrai par foy.”</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>L'autre chevalier dist: “Par la foi qu'a Dieu doy,</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Bien sai ou est la moie; freres sommes endoy.”</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>900</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Chascun d'eus trait la piece dont je vous ai fet conte.</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Le roy les vit puis dist: “Vray Dieu, qui tout surmonte,</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>On vous doit bien louer, tres dous peres puissans.</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>912</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Se li avez mesfait, requéres li pardon.”</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Les enfans respondirent: “Vostre commant feron.”</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Le pere et les enfans murent sans plus parler;</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
         <v>922</v>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Des maus que li ot fet li demanda merci</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Le roi englois li dist “A gré m'avez servi</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Vous avez mes enfans de leur armes garni</t>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Des maus que li ot fet li demanda merci.</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Le roi englois li dist: “A gré m'avez servi.</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Vous avez mes enfans de leur armes garni.</t>
         </is>
       </c>
     </row>
@@ -3148,7 +3620,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D69"/>
   <sheetViews>
@@ -3184,17 +3656,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Se vous la demandez; vous l'avrez sanz essoigne”</t>
+          <t>Se vous la demandez vous l'avrez sanz essoigne.”</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Lors respondi le duc; “Ci a bonne besoingne.”</t>
+          <t>Lors respondi le duc: “Ci a bonne besoingne.”</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Errant fist par messages enquerir la pucelle.</t>
+          <t>Errant fist par messages enquerir la pucelle,</t>
         </is>
       </c>
     </row>
@@ -3204,17 +3676,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Et tant qu'a .i. matin. que le duc se leva.</t>
+          <t>Et tant qu'a un matin que le duc se leva</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Il dist a la ducesse. “Trop malement nous va.</t>
+          <t>Il dist a la ducesse: “Trop malement nous va</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Que nus enfans n'avons par Dieu qui me forma.</t>
+          <t>Que nus enfans n'avons; par Dieu qui me forma,</t>
         </is>
       </c>
     </row>
@@ -3224,17 +3696,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ou lit qui fu couvert de fin or et de soie</t>
+          <t>Ou lit qui fu couvert de fin or et de soie.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>En soupirant a dit; “Diex me het bien le voi</t>
+          <t>En soupirant a dit: “Diex me het bien le voi;</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>J'encontre moult de femmes; qui n'ont ne ce ne quoi</t>
+          <t>J'encontre moult de femmes qui n'ont ne ce ne quoi,</t>
         </is>
       </c>
     </row>
@@ -3244,17 +3716,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Du surplus qu'il li fist ne vous parlerai mie</t>
+          <t>Du surplus qu'il li fist ne vous parlerai mie.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mais sachiez que le duc dist “Douz Diex je vous prie</t>
+          <t>Mais sachiez que le duc dist: “Douz Diex, je vous prie,</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Cil vous plaist que j'engendre enfant en ceste dame</t>
+          <t>C'il vous plaist que j'engendre enfant en ceste dame,</t>
         </is>
       </c>
     </row>
@@ -3264,17 +3736,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Qu'en li souffroit a faire son bon et son talent</t>
+          <t>Qu'en li souffroit a faire son bon et son talent;</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>On disoit “Il est jones il n'a point d'escient”</t>
+          <t>On disoit: “Il est jones, il n'a point d'escient.”</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>On se plaignoit de li. et menu et souvent</t>
+          <t>On se plaignoit de li et menu et souvent.</t>
         </is>
       </c>
     </row>
@@ -3289,12 +3761,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>A haute voiz disoient “Fuions ent en maison</t>
+          <t>A haute voiz disoient: “Fuions ent en maison,</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Vesci Robert le dëable en sa main .i. baston”</t>
+          <t>Vesci Robert le deable, en sa main un baston!”</t>
         </is>
       </c>
     </row>
@@ -3304,17 +3776,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Quant Robert ot .vii. anz son pere l'apela</t>
+          <t>Quant Robert ot set anz son pere l'apela</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Et li a dit “Biax filz temps est des ore mais</t>
+          <t>Et li a dit: “Biax filz, temps est des ore mais</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Que soiez mis a lettre vos livres est touz prés”</t>
+          <t>Que soiez mis a lettre, vos livres est touz pres.”</t>
         </is>
       </c>
     </row>
@@ -3324,17 +3796,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Que pour tant que son mestre le blasma .i. petit</t>
+          <t>Que pour tant que son mestre le blasma un petit</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>En disant “Biau douz sire vous n'avez pas bien dit”</t>
+          <t>En disant: “Biau douz sire, vous n'avez pas bien dit,”</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Il geta contre terre son livre par despit</t>
+          <t>Il geta contre terre son livre par despit,</t>
         </is>
       </c>
     </row>
@@ -3344,17 +3816,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Que des boiaus du ventre tout plain li entama</t>
+          <t>Que des boiaus du ventre tout plain li entama.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Puis dist “Mestre moustrez vo maistrise de la</t>
+          <t>Puis dist: “Mestre, moustrez vo maistrise de la,</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Car jamais clerc ne prestre le mien cuer n'amera</t>
+          <t>Car jamais clerc ne prestre le mien cuer n'amera.</t>
         </is>
       </c>
     </row>
@@ -3364,17 +3836,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Et quant il ot .xvi. ans sa mere qui l'amoit</t>
+          <t>Et quant il ot seize ans, sa mere qui l'amoit</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Dist au duc “Mon seigneur je croi que bon seroit</t>
+          <t>Dist au duc: “Mon seigneur, je croi que bon seroit</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Que vous adoubissiez vostre filz qui est fors</t>
+          <t>Que vous adoubissiez vostre filz qui est fors.</t>
         </is>
       </c>
     </row>
@@ -3384,17 +3856,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Je croi s'est chevaliers qu'il s'avisera lors”</t>
+          <t>Je croi, s'est chevaliers, qu'il s'avisera lors.”</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Et le duc respondi “Dame je m'i acors.</t>
+          <t>Et le duc respondi: “Dame, je m'i acors,</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Ne sai que ce sera j'ai grant duel de son cors</t>
+          <t>Ne sai que ce sera; j'ai grant duel de son cors.</t>
         </is>
       </c>
     </row>
@@ -3404,17 +3876,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Chevalier fu Robert. l'endemain par matin</t>
+          <t>Chevalier fu Robert l'endemain par matin.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Son pere li a dit “Filz soié a Dieu enclin.</t>
+          <t>Son pere li a dit: “Filz, soié a Dieu enclin</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Et soustenez l'eglyse. si tenrez bonne fin.”</t>
+          <t>Et soustenez l'eglyse, si tenrez bonne fin.”</t>
         </is>
       </c>
     </row>
@@ -3424,17 +3896,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Chascun le maudissoit de trainer ou pendre</t>
+          <t>Chascun le maudissoit de trainer ou pendre.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Le duc li dist “Biax filz plain es de mal erreur.</t>
+          <t>Le duc li dist: “Biax filz, plain es de mal erreur;</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Les seigneurs vindrent ci pour toi porter hounour</t>
+          <t>Les seigneurs vindrent ci pour toi porter hounour,</t>
         </is>
       </c>
     </row>
@@ -3444,17 +3916,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Robert vit qu'il estoit des plus nobles hays</t>
+          <t>Robert vit qu'il estoit des plus nobles hays.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Lors a dist a sa gent “Loiaument vous plevis</t>
+          <t>Lors a dist a sa gent: “Loiaument vous plevis:</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>S'asez avons fait mal encor ferons nous pis”</t>
+          <t>S'asez avons fait mal, encor ferons nous pis.”</t>
         </is>
       </c>
     </row>
@@ -3464,17 +3936,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>En venoient les plaintes chascun jour et refort</t>
+          <t>En venoient les plaintes chascun jour et refort.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>L'un li disoit “Sire chier; par foy c'est .i. lait Dieu</t>
+          <t>L'un li disoit: “Sire chier, par foy c'est un lait gieu!</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Robert a violees. les nonnains de tel lieu</t>
+          <t>Robert a violees les nonnains de tel lieu.</t>
         </is>
       </c>
     </row>
@@ -3489,12 +3961,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Un autre dist au duc “Sire c'est grant folie</t>
+          <t>Un autre dist au duc: “Sire, c'est grant folie,</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Que sousfrez que vos filz soit de tele estoutie</t>
+          <t>Que sousfrez que vos filz soit de tele estoutie;</t>
         </is>
       </c>
     </row>
@@ -3504,17 +3976,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>N'en poons plus souffrir se Diex nous saut les ames”</t>
+          <t>N'en poons plus souffrir, se Diex nous saut les ames.”</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Le duc prist a plourer. et dist “Sire .saint James</t>
+          <t>Le duc prist a plourer et dist: “Sire saint James,</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Riens tant ne desirroie; comme d'avoir .i. filz</t>
+          <t>Riens tant ne desirroie comme d'avoir un filz,</t>
         </is>
       </c>
     </row>
@@ -3524,17 +3996,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Trop m'a fait de courous” lors parla .i. hons viex</t>
+          <t>Trop m'a fait de courous.” Lors parla uns hons viex</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Et dist “Sire je lo; que Robert soit mandez.</t>
+          <t>Et dist: “Sire, je lo que Robert soit mandez</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Par devant touz vos hommes le mal li deffendez</t>
+          <t>Par devant touz vos hommes, le mal li deffendez,</t>
         </is>
       </c>
     </row>
@@ -3544,17 +4016,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Et s'il vous contralie em prison le metez”</t>
+          <t>Et s'il vous contralie em prison le metez.”</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Le duc dist “Je m'acort a ce que me loez”</t>
+          <t>Le duc dist: “Je m'acort a ce que me loez.”</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Lors fist on Robert querré par trestout le pays</t>
+          <t>Lors fist on Robert querre par trestout le pays;</t>
         </is>
       </c>
     </row>
@@ -3564,12 +4036,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Le duc qui fu preudomme si en fu moult dolent</t>
+          <t>Le duc qui fu preudomme si en fu moult dolent.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Lors li distrent ses hommes “Sire c'est pour nient</t>
+          <t>Lors li distrent ses hommes: “Sire c'est pour nient.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -3584,17 +4056,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Des qu'il vit les hermites en l'eure trait s'espee</t>
+          <t>Des qu'il vit les hermites en l'eure trait s'espee;</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Aus preudommes cria. “Vostre vie est alee”</t>
+          <t>Aus preudommes cria: “Vostre vie est alee!”</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Trestouz .vii. les tua sanz nule demouree</t>
+          <t>Trestouz set les tua, sanz nule demouree.</t>
         </is>
       </c>
     </row>
@@ -3604,12 +4076,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Trestouz .vii. les tua sanz nule demouree</t>
+          <t>Trestouz set les tua, sanz nule demouree.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Puis a dit “Par mon chief j'ai trouvé grant niee</t>
+          <t>Puis a dit: “Par mon chief, j'ai trouvé grant niee.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -3624,17 +4096,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Lors les larmes des yex. moult grosses li chairent</t>
+          <t>Lors les larmes des yex moult grosses li chaïrent.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Robert dist en son cuer “Voir je puis bien veir</t>
+          <t>Robert dist en son cuer: “Voir, je puis bien veir</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Que le pueple me het. si fait Dieu sanz mentir”</t>
+          <t>Que le pueple me het, si fait Dieu sanz mentir.”</t>
         </is>
       </c>
     </row>
@@ -3644,17 +4116,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Mais Robert le dëable au devant li ala.</t>
+          <t>Mais Robert le deable au devant li ala;</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Haut li a dit “Duchesse ne vous enfuiez ja</t>
+          <t>Haut li a dit: “Duchesse, ne vous enfuiez ja,</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Mais dites se savez dame comment ce va</t>
+          <t>Mais dites, se savez, dame, comment ce va</t>
         </is>
       </c>
     </row>
@@ -3664,17 +4136,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Quant la dame l'oÿ. cheoir li vout aus piez</t>
+          <t>Quant la dame l'oÿ, cheoir li vout aus piez;</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Em plourant li dist “Filz la teste me trenchiez”</t>
+          <t>Em plourant li dist: “Filz, la teste me trenchiez.”</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Robert respondi “Dame pourquoi vous tueroie</t>
+          <t>Robert respondi: “Dame, pourquoi vous tueroie?</t>
         </is>
       </c>
     </row>
@@ -3684,17 +4156,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Em plourant li dist “Filz la teste me trenchiez”</t>
+          <t>Em plourant li dist: “Filz, la teste me trenchiez.”</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Robert respondi “Dame pourquoi vous tueroie</t>
+          <t>Robert respondi: “Dame, pourquoi vous tueroie?</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>J'ai assez fait de mal encore pis feroie”</t>
+          <t>J'ai assez fait de mal; encore pis feroie.”</t>
         </is>
       </c>
     </row>
@@ -3704,17 +4176,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>J'ai assez fait de mal encore pis feroie”</t>
+          <t>J'ai assez fait de mal; encore pis feroie.”</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>La duchesse dist “Filz certes la coupe est moie</t>
+          <t>La duchesse dist: “Filz, certes la coupe est moie</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>De vostre mauvaistie.” lors li conta la voie</t>
+          <t>De vostre mauvaistie.” Lors li conta la voie</t>
         </is>
       </c>
     </row>
@@ -3724,17 +4196,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Moult grant duel demena quant il fu relevé</t>
+          <t>Moult grant duel demena, quant il fu relevé.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Puis dist en souspirant “Dyables ont envie</t>
+          <t>Puis dist en souspirant: “Dyables ont envie</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>D'avoir l'ame de moi mais il ne l'avront mie</t>
+          <t>D'avoir l'ame de moi, mais il ne l'avront mie.</t>
         </is>
       </c>
     </row>
@@ -3744,17 +4216,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Prendre me faut conseil comment el soit garie”</t>
+          <t>Prendre me faut conseil comment el soit garie.”</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Lors a dit a sa mere “Madame je vous prie</t>
+          <t>Lors a dit a sa mere: “Madame, je vous prie</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Que vous me saluez mon pere le preudomme</t>
+          <t>Que vous me saluez mon pere le preudomme,</t>
         </is>
       </c>
     </row>
@@ -3764,17 +4236,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Pour l'amour de Robert qui ainssi s'en ala</t>
+          <t>Pour l'amour de Robert qui ainssi s'en ala.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>A haute voiz crioit; “Lasse quelle aventure</t>
+          <t>A haute voiz crioit: “Lasse, quelle aventure!</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>J'ai mon enfant perdu diex si n'a de moi cure</t>
+          <t>J'ai mon enfant perdu, diex si n'a de moi cure.</t>
         </is>
       </c>
     </row>
@@ -3784,17 +4256,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>De Robert leur enfait le duc fist mate chiere</t>
+          <t>De Robert leur enfant. Le duc fist mate chiere.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Puis dist a la ducesse “Dame se repent il”</t>
+          <t>Puis dist a la ducesse: “Dame, se repent il?”</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Et elle respondi; “Se Dieu me gart ouil.”</t>
+          <t>Et elle respondi: “Se Dieu me gart, ouil.”</t>
         </is>
       </c>
     </row>
@@ -3804,17 +4276,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Puis dist a la ducesse “Dame se repent il”</t>
+          <t>Puis dist a la ducesse: “Dame, se repent il?”</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Et elle respondi; “Se Dieu me gart ouil.”</t>
+          <t>Et elle respondi: “Se Dieu me gart, ouil.”</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Le duc dist em plourant “Cela ne vaut .i. fil</t>
+          <t>Le duc dist em plourant: “Cela ne vaut un fil;</t>
         </is>
       </c>
     </row>
@@ -3824,17 +4296,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Et elle respondi; “Se Dieu me gart ouil.”</t>
+          <t>Et elle respondi: “Se Dieu me gart, ouil.”</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Le duc dist em plourant “Cela ne vaut .i. fil</t>
+          <t>Le duc dist em plourant: “Cela ne vaut un fil;</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Pas ne restabliroient s'il estoient tel mil.</t>
+          <t>Pas ne restabliroient, s'il estoient tel mil,</t>
         </is>
       </c>
     </row>
@@ -3844,17 +4316,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Se drecierent des tables sus leur piez contre lui</t>
+          <t>Se drecierent des tables sus leur piez contre lui;</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Mais il leur dist “Seignours par amours je vous pri;</t>
+          <t>Mais il leur dist: “Seignours par amours je vous pri,</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Ne soiez plus larron criez a Dieu merci</t>
+          <t>Ne soiez plus larron; criez a Dieu merci.</t>
         </is>
       </c>
     </row>
@@ -3864,17 +4336,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Ce n'es mie maistrise d'estre touz jourz mauvais”</t>
+          <t>Ce n'es mie maistrise d'estre touz jourz mauvais.”</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>L'un des larrons dist “Sire ne m'en parlez jamais</t>
+          <t>L'un des larrons dist: “Sire, ne m'en parlez jamais.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Por .c. mil mars d'or ne seroit marchiez fais</t>
+          <t>Por cent mil mars d'or ne seroit marchiez fais</t>
         </is>
       </c>
     </row>
@@ -3884,17 +4356,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Et s'il ont bien emblé qu'il embleront plus fort.</t>
+          <t>Et s'il ont bien emblé, qu'il embleront plus fort.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Robert leur respondi “Seignour vous avez tort”</t>
+          <t>Robert leur respondi: “Seignour, vous avez tort.”</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Or entendez pour Dieu de quoi il s'apensa</t>
+          <t>Or entendez pour Dieu de quoi il s'apensa:</t>
         </is>
       </c>
     </row>
@@ -3904,17 +4376,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Que trestous les tua point n'estoient armez</t>
+          <t>Que trestous les tua; point n'estoient armez.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Puis leur dist en moquant “Endormant vous tenez</t>
+          <t>Puis leur dist en moquant: “Endormant vous tenez,</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Je croi des ore mais preudes hommez serez”</t>
+          <t>Je croi des ore mais preudes hommez serez.”</t>
         </is>
       </c>
     </row>
@@ -3924,17 +4396,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Car je vous ai a tort par plusieurs foiz grevez”</t>
+          <t>Car je vous ai a tort par plusieurs foiz grevez.”</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Puis a dit a l'abé “Biau sire car alez</t>
+          <t>Puis a dit a l'abé: “Biau sire, car alez,</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>S'il vous plaist a mon pere ceste cles li portez</t>
+          <t>S'il vous plaist, a mon pere, ceste cles li portez;</t>
         </is>
       </c>
     </row>
@@ -3944,17 +4416,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Si feroient il forment de bastons dessus soi</t>
+          <t>Si feroient il forment de bastons dessus soi;</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Le pappe en ot pitié si dist “Laissez le quoi”</t>
+          <t>Le pappe en ot pitié, si dist: “Laissez le quoi.”</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Lors le prist par la main et li dist “Lieve toi”</t>
+          <t>Lors le prist par la main et li dist: “Lieve toi.”</t>
         </is>
       </c>
     </row>
@@ -3964,17 +4436,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Le pappe en ot pitié si dist “Laissez le quoi”</t>
+          <t>Le pappe en ot pitié, si dist: “Laissez le quoi.”</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Lors le prist par la main et li dist “Lieve toi”</t>
+          <t>Lors le prist par la main et li dist: “Lieve toi.”</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Robert li dist “ saint pere pour Dieu confessez moi</t>
+          <t>Robert li dist: “Saint pere, pour Dieu, confessez moi.</t>
         </is>
       </c>
     </row>
@@ -3984,17 +4456,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Lors le prist par la main et li dist “Lieve toi”</t>
+          <t>Lors le prist par la main et li dist: “Lieve toi.”</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Robert li dist “ saint pere pour Dieu confessez moi</t>
+          <t>Robert li dist: “Saint pere, pour Dieu, confessez moi.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Se de vous n'ai conseil je vaul pis c'un chien mort</t>
+          <t>Se de vous n'ai conseil, je vaul pis c'un chien mort,</t>
         </is>
       </c>
     </row>
@@ -4004,17 +4476,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Lors se seigna le pappe. du pere esperitable</t>
+          <t>Lors se seigna le pappe du pere esperitable</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Et li dist “Es tu ce de quoi on parle tant</t>
+          <t>Et li dist: “Es tu ce de quoi on parle tant?</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Il n'a en tout le monde de toi plus mal tyrant</t>
+          <t>Il n'a en tout le monde de toi plus mal tyrant.</t>
         </is>
       </c>
     </row>
@@ -4024,12 +4496,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Adont s'agenoulla. robert et joint les mains</t>
+          <t>Adont s'agenoulla Robert et joint les mains</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Et li a dit “ saint pere pour Diex soiez certains</t>
+          <t>Et li a dit: “Saint pere, pour Diex, soiez certains</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -4044,17 +4516,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Dont il avoit au cuer pesme dolour amere</t>
+          <t>Dont il avoit au cuer pesme dolour amere.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Le pappe le seigna puis li a dit “Biau frere</t>
+          <t>Le pappe le seigna, puis li a dit: “Biau frere,</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Demain au point du jour que l'aube sera clere</t>
+          <t>Demain au point du jour, que l'aube sera clere,</t>
         </is>
       </c>
     </row>
@@ -4069,12 +4541,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Robert li dist “ saint pere g'irai moult doucement</t>
+          <t>Robert li dist: “Saint pere, g'irai moult doucement;</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Diex veille que par lui truisse mon sauvement”</t>
+          <t>Diex veille que par lui truisse mon sauvement.”</t>
         </is>
       </c>
     </row>
@@ -4084,17 +4556,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>De ce que il disoit en bonne repentance</t>
+          <t>De ce que il disoit en bonne repentance.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Au derrenier li dist “Amis n'aie doutance</t>
+          <t>Au derrenier li dist: “Amis, n'aie doutance;</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Jusqu'a demain ferez avec moi demourance</t>
+          <t>Jusqu'a demain ferez avec moi demourance,</t>
         </is>
       </c>
     </row>
@@ -4104,17 +4576,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Se descoucha Robert qu'ot conscience nete</t>
+          <t>Se descoucha Robert, qu'ot conscience nete.</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>L'ermite l'apela et li dist “Ca venez</t>
+          <t>L'ermite l'apela et li dist: “Ca venez.</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Se voulez estre quite des mauz que fait avez</t>
+          <t>Se voulez estre quite des mauz que fait avez,</t>
         </is>
       </c>
     </row>
@@ -4129,12 +4601,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Et dist “Je vous mercie dous peres glorieux.</t>
+          <t>Et dist: “Je vous mercie, dous Peres glorieux,</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Quant pour tant serai quite de mes pechiez mortieux”</t>
+          <t>Quant pour tant serai quite de mes pechiez mortieux.”</t>
         </is>
       </c>
     </row>
@@ -4144,17 +4616,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>L'emperere le vit qui seoit au souper</t>
+          <t>L'emperere le vit qui seoit au souper,</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>A ses chevaliers dist “Vez la biau bacheler</t>
+          <t>A ses chevaliers dist: “Vez la biau bacheler!</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Onques mais miex taillie a mon talent ne vi.</t>
+          <t>Onques mais miex taillie a mon talent ne vi,</t>
         </is>
       </c>
     </row>
@@ -4164,17 +4636,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>L'emperere percut dessous la table .i. chien</t>
+          <t>L'emperere percut dessous la table un chien</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Qui ot esté blecié el bois puis dist “Ca vien”</t>
+          <t>Qui ot esté blecié el bois. Puis dist: “Ca vien!”</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Et li donna .i. os. ou de char ot assez</t>
+          <t>Et li donna un os ou de char ot assez.</t>
         </is>
       </c>
     </row>
@@ -4184,17 +4656,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>L'emperere rioit trop fort pour la folie</t>
+          <t>L'emperere rioit trop fort pour la folie.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>A ses chevaliers dist “Seignours soiez certain</t>
+          <t>A ses chevaliers dist: “Seignours, soiez certain,</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Onques plus courtois fol ne vit franc ne vilain</t>
+          <t>Onques plus courtois fol ne vit franc ne vilain;</t>
         </is>
       </c>
     </row>
@@ -4204,17 +4676,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Contre ces Sarrazins nostre droit deffendons”</t>
+          <t>Contre ces sarrazins nostre droit deffendons.”</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Et il li respondirent. “Sire bien le voulons”</t>
+          <t>Et il li respondirent: “Sire, bien le voulons.”</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Lors s'alerent armer sanz point d'arrestoison</t>
+          <t>Lors s'alerent armer sanz point d'arrestoison.</t>
         </is>
       </c>
     </row>
@@ -4229,12 +4701,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Qui dist “Pren cest destrier que je yci t'amainne</t>
+          <t>Qui dist: “Pren cest destrier que je yci t'amainne,</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Et si t'arme des armes qui sont blanches com laine”</t>
+          <t>Et si t'arme des armes qui sont blanches com laine.”</t>
         </is>
       </c>
     </row>
@@ -4244,12 +4716,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Esgratiné le vit forment li em pesa</t>
+          <t>Esgratiné le vit, forment li em pesa.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Puis dist “Foi qu'a Dieu doi ceens fausse gent a</t>
+          <t>Puis dist: “Foi qu'a Dieu doi, ceens fausse gent a.</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -4264,17 +4736,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Il est fol debonnaire et si croi qu'il soit fors”</t>
+          <t>Il est fol debonnaire et si croi qu'il soit fors.”</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Un autre chevalier. dist “Sire ne vous chaille</t>
+          <t>Un autre chevalier dist: “Sire, ne vous chaille;</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Hui fait avons la hors sus Paiens la bataille</t>
+          <t>Hui fait avons la hors sus paiens la bataille</t>
         </is>
       </c>
     </row>
@@ -4284,17 +4756,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Et il a fait la soue caiens o la merdaille”</t>
+          <t>Et il a fait la soue caiens o la merdaille.”</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Le roy li respondi “Par foy vaille que vaille</t>
+          <t>Le roy li respondi: “Par foy, vaille que vaille,</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Se je le voi mal faire bien l'en ferai vengier</t>
+          <t>Se je le voi mal faire bien l'en ferai vengier.</t>
         </is>
       </c>
     </row>
@@ -4304,12 +4776,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Que c'estoit que sa fille li vouloit demoustrer</t>
+          <t>Que c'estoit que sa fille li vouloit demoustrer.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Sa maistresse dist “Sire faire veult demoustrance</t>
+          <t>Sa maistresse dist: “Sire, faire veult demoustrance</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -4324,17 +4796,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>L'emperere de Romme ses chevaliers manda</t>
+          <t>L'emperere de Romme ses chevaliers manda,</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Puis leur a dit “Seigneur pour Dieu entendez ca</t>
+          <t>Puis leur a dit: “Seigneur, pour Dieu entendez ca:</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Il nous faudra combatre vers la gent l'aversier</t>
+          <t>Il nous faudra combatre vers la gent l'aversier.</t>
         </is>
       </c>
     </row>
@@ -4344,17 +4816,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Quant les .xv. Rommains qui furent en la plaine</t>
+          <t>Quant les quinze Rommains qui furent en la plaine</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Li escrierent “Maistre tyrez a vous vo rene</t>
+          <t>Li escrierent: “Maistre, tyrez a vous vo rene,</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Et dites qui vous estes ne de con fait pais”</t>
+          <t>Et dites qui vous estes ne de con fait païs.”</t>
         </is>
       </c>
     </row>
@@ -4364,12 +4836,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Mais qu'il moustre la plaie qui du fer li fu faite”</t>
+          <t>Mais qu'il moustre la plaie qui du fer li fu faite.”</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>L'emperere li dist “Cest conseil bien me hete.</t>
+          <t>L'emperere li dist: “Cest conseil bien me hete.</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -4384,17 +4856,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Quant la jone pucelle qui point parler ne sot</t>
+          <t>Quant la jone pucelle, qui point parler ne sot,</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Parla a son chier pere et dist “Bien vous voi sot</t>
+          <t>Parla a son chier pere et dist: “Bien vous voi sot</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Qui creez ce traitre il ment a chascun mot</t>
+          <t>Qui creez ce traitre; il ment a chascun mot;</t>
         </is>
       </c>
     </row>
@@ -4404,17 +4876,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Qu'il ne se donna garde du chetif mescheant</t>
+          <t>Qu'il ne se donna garde du chetif mescheant.</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Lors li dist l'apostoile “Ma suer je vous demant</t>
+          <t>Lors li dist l'apostoile: “Ma suer, je vous demant,</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Qui est le saint preudomme dont vous alez parlant”</t>
+          <t>Qui est le saint preudomme dont vous alez parlant?”</t>
         </is>
       </c>
     </row>
@@ -4424,17 +4896,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Pour les vertus estoient ceulz de Romme moult liez</t>
+          <t>Pour les vertus estoient ceulz de Romme moult liez.</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>La fille dist au pappe “Sire de voir sachiez</t>
+          <t>La fille dist au pappe: “Sire, de voir sachiez</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Qu'en ceste place ci s'est .iii. foiz haubergiez</t>
+          <t>Qu'en ceste place ci s'est trois foiz haubergiez</t>
         </is>
       </c>
     </row>
@@ -4444,17 +4916,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Moult bel le saluerent mais il ne leur dist rien</t>
+          <t>Moult bel le saluerent, mais il ne leur dist rien.</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>L'emperere li dist “Biax douz amis cha vien</t>
+          <t>L'emperere li dist: “Biax douz amis, cha vien,</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Et me moustre ta cuisse par fine amour te pri”</t>
+          <t>Et me moustre ta cuisse par fine amour te pri.”</t>
         </is>
       </c>
     </row>
@@ -4464,12 +4936,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Mais n'en avoit talent vers Robert s'umelie</t>
+          <t>Mais n'en avoit talent, vers Robert s'umelie</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Et li dist “Tres douz filz je sui pappe clamez</t>
+          <t>Et li dist: “Tres douz filz, je sui pappe clamez.</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -4484,17 +4956,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Que le douz Jhesucrist le vous mande par moi”</t>
+          <t>Que le douz Jhesucrist le vous mande par moi.”</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Robert s'agenoulla et dist “Glorieus roy</t>
+          <t>Robert s'agenoulla et dist: “Glorieus Roy,</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Liez sui quant ai tant fait qu'acordé sui a toi</t>
+          <t>Liez sui quant ai tant fait qu'acordé sui a toi.</t>
         </is>
       </c>
     </row>
@@ -4504,12 +4976,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Estes vous .v. messages dont li uns haut parla.</t>
+          <t>Estes vous cinq messages dont li uns haut parla.</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Bien salua Robert. et dist “Vous ne savez.</t>
+          <t>Bien salua Robert et dist: “Vous ne savez,</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -4524,17 +4996,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Avoir veult vostre femme de riens n'a autre envie.”</t>
+          <t>Avoir veult vostre femme; de riens n'a autre envie.”</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Robert li respondi “Voir il pense folie”</t>
+          <t>Robert li respondi: “Voir, il pense folie.”</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Lors manda son effors par toute Normendie</t>
+          <t>Lors manda son effors par toute Normendie,</t>
         </is>
       </c>
     </row>
@@ -4543,7 +5015,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D18"/>
   <sheetViews>
@@ -4918,7 +5390,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -5033,7 +5505,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -5208,7 +5680,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -5275,156 +5747,6 @@
       <c r="D3" t="inlineStr">
         <is>
           <t>Il n'en fera nëant, tu proposes trop tart.</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>line_n</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>prev_line</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>next_line</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>31</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Tu t'ies rendus a moy, si me dois mult amer.”</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Et cil li respondi: “Bien povez commander;</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Je feré vo vouloir, qui qu'en doie peser.”</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>72</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Si que le gieu soit tost partout manifestés.”</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Et cil li respondi: “De ce pas ne doutez;</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Quar du premier de faire forment me hasteray,</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>95</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Le segnateur li dist que cil l'avoit perdue,</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>El cil li respondi: “C'est bien chose sceüe;</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Par force m'en avez ainsi maintes tolue!</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>line_n</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>prev_line</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>next_line</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>50</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>“Avay! sir Belial, tu queres grant utrage,”</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Dist le chevaler, “qe fust de fere curage;</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Unqes ne fust oye qe serfs de seignurage</t>
         </is>
       </c>
     </row>
@@ -5790,6 +6112,156 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>line_n</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>prev_line</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>next_line</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>31</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Tu t'ies rendus a moy, si me dois mult amer.”</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Et cil li respondi: “Bien povez commander;</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Je feré vo vouloir, qui qu'en doie peser.”</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>72</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Si que le gieu soit tost partout manifestés.”</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Et cil li respondi: “De ce pas ne doutez;</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Quar du premier de faire forment me hasteray,</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>95</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Le segnateur li dist que cil l'avoit perdue,</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>El cil li respondi: “C'est bien chose sceüe;</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Par force m'en avez ainsi maintes tolue!</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>line_n</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>prev_line</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>next_line</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>50</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>“Avay! sir Belial, tu queres grant utrage,”</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Dist le chevaler, “qe fust de fere curage;</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Unqes ne fust oye qe serfs de seignurage</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7195,6 +7667,981 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>line_n</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>prev_line</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>next_line</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>37</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Grant duel fisent pour li si parent plus haut.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>En souspirant dist elle: “Douce Vierge Marie.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Comment ai ge si tos pierdu ma compagnie?</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>72</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Mais encore avoit mere, qui li aloit entour,</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Souvent li disoit: “Fille, vous faittes grant folour.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Point seloncg vostre estat, fille, ne vous portés.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>85</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Li enfant viers sa vielle ante s'en vint a l'anuitier.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Sa vielle ante li dist: “Biaus fis, que fait ta mere?”</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Il li respondi: “Dame, de la mort de mon pere</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>86</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sa vielle ante li dist: “Biaus fis, que fait ta mere?”</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Il li respondi: “Dame, de la mort de mon pere</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Ne se puet conforter, ne say par quei matere</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>110</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Qu'elle fust seulement otant boine que bielle;</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Et dist: “Glorïeus Dieus, fil de Vierge pucelle,</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Bien sai, si vous pleuïst, que je fuise mesielle,</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>122</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>“Vous yestes bielle et boine, si plest a Dieu, m'amie.”</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>La damme li dist: “Sire, ne me respondés mie</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>A ce que je demande, mais faites courtoisie,</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>134</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>L'endemain au matin furent par li mandé</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Les ami son mari, et leur dist: “Entendé</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Je voel que mon fil soit de sa part asenés,</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>162</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Je croi n'est si durs cuers qui n'en euïst pitié.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>La mere s'escria: “Fille! tu as laisié</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Ton païs et la tiere, tu as lait grant pekié,</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>197</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Prioit pour ses amis quant estoit a repos.</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>En plorant tenrement disoit: “Glorïeus Dieus,</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Reconfortés ma mere et Jehan men cier fieus,</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>229</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>S'amour et son gent cors li ala presentant.</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Comme folle li dist: “Tant vous aine par amours</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Que je ne puis pour vous durer ne nuit ne jours;</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>233</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Il respondi un mot dont puis ot grant dolour,</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Car il dist: “Douce amie, se vostre gré fasoie,</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Je say bien de ciertain, vilainement moroie,</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>236</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Et a bon droit seroit, car desiervit l'aroie.”</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Celle qui ot grant duel, dist: “Garcon, va te voie.”</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Le clercq s'en departi, qui estoit boins et biel,</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>242</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Quant son pere le seut s'en eut le coer mari;</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Par desconfort dist: “Fille, qui t'a ensi honni?”</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Lors par l'art dou diable sa fille respondi</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>259</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Fu Jehan ou desiert a mout tres grant vieuté,</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Depriant Dieu de glore: “Si boin com vous savés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Qu'a tort sui ci endroit, de moy aidier pensés,</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>281</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Quant elle l'entendi, elle en fu mout joiant.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Elle dist: “Tres dous Dieus, voir mout, lie seroie,</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Se dou mien sans l'autrui en povreté vivoie;</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>300</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Quant la mere l'oï, si geta maint souspir,</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Puis li dist: “Douce soer il ne puet avenir;</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Voir ja mais n'aray joie de ma tres douce amie;</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>309</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Quant la mere retint la fille par le main</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Et doucement li dist: “Suer, vous n'iestes pas saine,</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Vous venés d'aucun lieu ou avés souffiert paine.”</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>311</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Vous venés d'aucun lieu ou avés souffiert paine.”</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Lors dist a sa cambriere: “Fai tos et si te paine</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>D'aaisier ceste famme, car elle est forment vaine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>315</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>La meskine, qui ot fel le coer et amer</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Li dist par grant despit: “Faittes le ca passer.”</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Dieudenee entra ens, au lit l'ala mener.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>317</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Dieudenee entra ens, au lit l'ala mener.</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>La cambouriere dist: “Couciés vous ci, truande,</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Car vous n'arés pas mon melleur vin ne viande.”</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>319</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Car vous n'arés pas mon melleur vin ne viande.”</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Mais la sainte piersonne li dist: “Riens ne demande.”</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Viestue se couca, puis a Dieu se conmande.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>331</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Il li prist mout grant fain de s'ostesse veoir;</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>La cambriere li dist: “De cou ne puet caloir,</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Ce n'est qu'une truande, je le vous di pour voir.”</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>345</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Mout grant pité en prist et Dieu, qui le voloit;</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Parmi le main le prist et li dist: “Douce amie,</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Mal yestes hostelee et par fause main guie.”</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>347</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Mal yestes hostelee et par fause main guie.”</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Dieudenee dist: “Damme, ne vous coureciés mie,</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Vingt ans a que ne fuc a men gré hierbegie,”</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>349</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Vingt ans a que ne fuc a men gré hierbegie,”</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>La dame li dist: “Soer, voir envis vous lairoie</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>En tel point que vous yestes, afin que Dieus pourvoie</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>352</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Dieudenee, ma fille, dont ne puis avoir joie.”</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Sa fille respondi: “Damme, Dieus vous doinst joie!”</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>“Amen, que Dieus l'envoie!” la damme respondi,</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>367</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Ont assés de deffaute et oënt de lais dis.”</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Sa fille li dist: “Damme, li rois de paradis</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Vous renge tous les biens c'avés ci endroit mis,</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>379</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Lors le mere a la fille de l'euwe presenta</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Et li dist doucement: “Soer, ne vous doubtés ja,</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Vous verés bien l'evesque, quant ceens dignera.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>386</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Pluiseurs orisons dist et puis s'est endormie.</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Une vois li vint dire: “Fame, tu yes mout lie</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Que tes fieus est evesques, mais ne demora mie</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>428</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Dieudenee, qui pau de son cors conte tint,</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Li dist: “Tres douce amie, doleur sent, plus de vingt,</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Mais voir j'aligeroie, se le sai vraiement,</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>438</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Viers l'evesque se traist, qui vint apriés diner</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Et li dist: “Je vous prie que vegniés conforter</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Une bien povre femme qu'ier soir fis hosteler:</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>441</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Que Dieus vous doinst encore vo mere recouvrer.”</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>L'evesque Jehan dist: “Voir, volentiers iray,</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Mais je croi que ja mais ma mere ne veray;</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>447</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Mais tant estoit malade que l'estuet recoucier.</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Lors joint les mains viers li et li dist: “Sire cier,</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>On non de Jhesucris vostre consel requier.”</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>454</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Quant la damme se fu a son fil confiessee,</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Elle li dist: “Pour Dieu, si vous plaist et agree,</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Dedens un renclusage soie par vous posee,</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>459</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Quant l'evesque l'oÿ, un grant souspir geta,</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Puis li dist: “Douce soer, elle est morte pieca.”</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>La mere dist au fil: “Sire, n'en doubtés ja,</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>460</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Puis li dist: “Douce soer, elle est morte pieca.”</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>La mere dist au fil: “Sire, n'en doubtés ja,</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>N'a guaires que je fuic en un lieu avoecq li</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>469</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Lors quant son fil l'oÿ, fort prist a larmoyer,</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>En plorant dist il: “Damme, je ferai ton voloir,</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Que Dieus me doinst ma mere encore reveoir.”</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>550</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Sa fenestrielle clot et puis s'ala coucier</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>En crois encontre terre, puis dist: “Rois droiturier,</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Si voir com en la crois te laisas clauficier,</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>572</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>La fenestrielle ouvri, s'a se mere coisie,</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Qui venoit droit, a li, se li dist: “Douce amie.</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Toutes fois que vous vos devant my en present,</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>579</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Lors seloncq son pooir mout bien le conforta</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>En disant: “Douce damme, voir Dieus vous aidera</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Ains neuf jours acomplis vos cuers joians sera.”</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>582</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>“Et comment poroit yestre?” dist la dame senee.</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Dieudonnee li dist: “Mout bien, se Dieu l'agree.”</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>La mere de sa fille en est plorant tournee.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>591</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>S'en vint a gnus genous dedens une capielle</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Et dist: “Haute Roïne, sur toutes autres bielle,</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Souskeur ton las siergant qui au besoing t'apielle.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>609</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Et si fu une vois par le chité oïe</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Qui disoit: “Folle gent, trop yestes esgaree;</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Pensés que vostre evesque soit grant honneur portee,</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>632</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Mais ne le connissoit, tant fu ses cors tarnis.</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Doucement li dist: “Damme, vous m'avïés promis</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Que ma mere venroit: bien croi que me mokiés;</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>636</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Se veoir le pooie, j'en seroie mout liés.”</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>La mere dist au fil: “Pas ne vous esmaiiés;</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Ains que passe sept jours le verés de vos yeus.”</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>661</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Mais de cou que la damme oï tel mandement,</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Viers levesque s'en vint et li dist: “Sire cers,</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Le rencluse me mande que dedens l'anuitier</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>671</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Tantost connut sa fille qu'elle l'ot regardee,</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>En haut dist: “Boine gent, par foy, c'est Dieudenee.”</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>De destrece queï desus le cors paumee.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7668,7 +9115,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -7883,7 +9330,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -7978,7 +9425,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -8211,199 +9658,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>line_n</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>prev_line</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>next_line</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>47</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Ses dens prist a estraindre, si com fust forsenez,</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Puis dit a ses serjans: “Faites toust, ci alez</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Querir Sebastïen et ci le m'amenez.”</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>53</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Mout felounessement le resgarda par despit,</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Puis dit: “Sebastïen, l'en m'a fet entendent</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Que ne prises Mahom qui sur touz est puissant</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>59</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Saint Sebastïen fist mener a ses ydoles.</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Le tirant li dist: “Frere garde que ne t'afolles;</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Celx qui noz diex n'aourent ont bien lez testes folles.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>84</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Et te donray de terre assez plus que tu n'as.”</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Saint Sebastïen dit: “En vain tu te debas,</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Quar toutes tes richessez ne valent un festu</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>91</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Quant le tyrant l'oÿ, sy en out grant tourment,</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Forment li escria: “Mauves glouton pullant,</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Je te feray livrer a martire molt grant.”</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>105</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Au mestre palés vint, ne fut pas esperdus.</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Au tirant dit en haust: “Personne dissolue,</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Mainte plaie mortele ay au jour d'ui sentue;</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>123</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Qui saint Sebastïen out pris a grant haïne,</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Li dit: “A tort te fes morir a discipline.”</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Le bon saint respondi, qui out pensee fine:</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>250</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Vous oez un proverbe souvent qui tout est voir,</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>C'est “Qui voit la meson de son voysin ardoir</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Pas ne doit en la sienne molt grant fiance avoir.”</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/outputs/a/quote_types/list_q_c.xlsx
+++ b/outputs/a/quote_types/list_q_c.xlsx
@@ -12,23 +12,24 @@
     <sheet name="A03 vie saint basille" sheetId="3" r:id="rId3"/>
     <sheet name="A04 vie saint christofle" sheetId="4" r:id="rId4"/>
     <sheet name="A05 vie sainte dieudonnee" sheetId="5" r:id="rId5"/>
-    <sheet name="A06 saint jean evangeliste" sheetId="6" r:id="rId6"/>
-    <sheet name="A07 vie saint jean paulus" sheetId="7" r:id="rId7"/>
-    <sheet name="A08 vie glorieux confesseur" sheetId="8" r:id="rId8"/>
-    <sheet name="A09 vie saint leu" sheetId="9" r:id="rId9"/>
-    <sheet name="A10 poines enfer" sheetId="10" r:id="rId10"/>
-    <sheet name="A11 vie saint sebastien" sheetId="11" r:id="rId11"/>
-    <sheet name="A12 miracle saint servais" sheetId="12" r:id="rId12"/>
-    <sheet name="A13 vie seint thibault" sheetId="13" r:id="rId13"/>
-    <sheet name="A16 guillaume angleterre" sheetId="14" r:id="rId14"/>
-    <sheet name="A17 robert deable" sheetId="15" r:id="rId15"/>
-    <sheet name="A18 richart sans peour" sheetId="16" r:id="rId16"/>
-    <sheet name="A19 elegy troyes" sheetId="17" r:id="rId17"/>
-    <sheet name="A20 vieillards tués" sheetId="18" r:id="rId18"/>
-    <sheet name="A21 mauvais riche homme" sheetId="19" r:id="rId19"/>
-    <sheet name="A22 jeu des dez" sheetId="20" r:id="rId20"/>
-    <sheet name="A23 roy avoit amie" sheetId="21" r:id="rId21"/>
-    <sheet name="A25 quatre sereurs" sheetId="22" r:id="rId22"/>
+    <sheet name="A06 vie saint gregoire" sheetId="6" r:id="rId6"/>
+    <sheet name="A07 saint jean evangeliste" sheetId="7" r:id="rId7"/>
+    <sheet name="A08 vie saint jean paulus" sheetId="8" r:id="rId8"/>
+    <sheet name="A09 vie glorieux confesseur" sheetId="9" r:id="rId9"/>
+    <sheet name="A10 vie saint leu" sheetId="10" r:id="rId10"/>
+    <sheet name="A11 poines enfer" sheetId="11" r:id="rId11"/>
+    <sheet name="A12 vie saint sebastien" sheetId="12" r:id="rId12"/>
+    <sheet name="A13 miracle saint servais" sheetId="13" r:id="rId13"/>
+    <sheet name="A14 vie seint thibault" sheetId="14" r:id="rId14"/>
+    <sheet name="A17 guillaume angleterre" sheetId="15" r:id="rId15"/>
+    <sheet name="A18 robert deable" sheetId="16" r:id="rId16"/>
+    <sheet name="A19 richart sans peour" sheetId="17" r:id="rId17"/>
+    <sheet name="A20 elegy troyes" sheetId="18" r:id="rId18"/>
+    <sheet name="A21 vieillards tués" sheetId="19" r:id="rId19"/>
+    <sheet name="A22 mauvais riche homme" sheetId="20" r:id="rId20"/>
+    <sheet name="A23 jeu des dez" sheetId="21" r:id="rId21"/>
+    <sheet name="A24 roy avoit amie" sheetId="22" r:id="rId22"/>
+    <sheet name="A26 quatre sereurs" sheetId="23" r:id="rId23"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -1347,6 +1348,241 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>line_n</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>prev_line</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>next_line</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>52</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Et lez mauvaise gent qui furent faux et vuit</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Disoient l'un a l'autre: “Certainement, je cuit</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Que il couchent ensemble et gisent per a per.”</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>68</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>L'anel print de son doy, en l'eaue l'a jecté</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Et puis dist en son cueur: “James ne rentreré</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Dedens l'archeveschié de la cité de Sens</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>90</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Saint Leu en l'ermitage s'est a genoulx getté</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Et dist: “Haulte roÿne, flour de virginité,</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Veuille prier ton filx, le roy de maiesté</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>120</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Moult bien le recongnut, puis prinst a lermoier.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Puis au chanoignes dist: “Per Dieu le droiturier,</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Seigneurs, il m'est avis que c'est yci l'anel</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>128</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Leur afflictïon firent longuement et assés.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Tant qu'une voix leur dist: “Seigneurs, or entendés,</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>C'est l'annel l'archevesque que Dieu vous a tranmis,</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>146</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Si n'aroy vraie ensengne du tres dolx roys des roys.”</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>L'un dez seigneurs lui dist: “Sire, il est bien drois.”</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Son ennel lui actaint et lui mist en son dois.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>152</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>“Seigneurs, comment se porte l'eglise et la gent?”</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Et il ont respondu: “Sire, moult flebement.</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Onques puis en nul lieu en vostre archeveschié</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>156</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sire, pour Dieu mercy, prengne vous en pitié.”</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Et saint Leu respondi: “Puis qu'il vous plest j'iré.”</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>L'archevesque saint leu s'en vint tout droit a Sens</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>206</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Vers les cieulx regarda, si c'est a genoulx mys</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Et dist: “Pere puissant qui en la crois fu mis</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Au jour du vendredi et dessus mort souffris</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>222</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Li angres devant luy descendit des sains cieulx</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Qui lui dist par son non: “Leu, entend, le vray Diex</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Te ottroy ta requeste et encore arés miex</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1480,7 +1716,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -1675,7 +1911,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -1810,7 +2046,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -1965,7 +2201,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D82"/>
   <sheetViews>
@@ -3620,7 +3856,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D69"/>
   <sheetViews>
@@ -5015,7 +5251,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D18"/>
   <sheetViews>
@@ -5390,7 +5626,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -5505,7 +5741,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -5672,81 +5908,6 @@
       <c r="D8" t="inlineStr">
         <is>
           <t>Pour ce que a ton pere as sauvee la vie.”</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>line_n</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>prev_line</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>next_line</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>18</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Quant la dame oy le ladre, si en ot grant pitié.</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>A son seingneur a dit: “Pour la moy amitié,</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Donne li de tez biens, si feras cherité,</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>94</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Qu'elle te doinst de mes biens dont il y a foison.”</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Un anglre respondi: “Tu parles sans raison.</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Il n'en fera nëant, tu proposes trop tart.</t>
         </is>
       </c>
     </row>
@@ -6112,6 +6273,81 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>line_n</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>prev_line</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>next_line</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>18</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Quant la dame oy le ladre, si en ot grant pitié.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A son seingneur a dit: “Pour la moy amitié,</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Donne li de tez biens, si feras cherité,</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>94</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Qu'elle te doinst de mes biens dont il y a foison.”</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Un anglre respondi: “Tu parles sans raison.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Il n'en fera nëant, tu proposes trop tart.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6205,7 +6441,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -6260,7 +6496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -8642,6 +8878,601 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>line_n</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>prev_line</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>next_line</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>37</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Quant le damoiseau a celle nouvelle ouÿe,</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Grant dueil eult en son cueur, puis dit: “Virge marie,</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>De si vilain pechié ne nous souvient il mie.”</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>39</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>De si vilain pechié ne nous souvient il mie.”</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Puis appella sa seur et lui dist: “Doulce amie,</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Ces gens de dehors dient, c'est chose prouvee,</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>51</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Du damoiseau dirons, qui fut courtois et sage:</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Il a dit a sa seur: “Vecy trop grant servage,</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Car tous ceulx sont dampnez en mon entencïon</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>68</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mais quant il le regarde, moult oult le cueur dolent.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Puis lui dist: “Belle seur, que pourrons devenir?</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Pour parolle de gens, ne laissons a mourir.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>71</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Les deux cueurs de noz ventres deussent parmi partir.”</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Et elle respondi: “Dieu fera son plaisir.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Faittes faire, beau frere, ung escrin sans delay,</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>76</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Comment vous l'engendrastes, et comment le portay.”</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Son frere respondi: “Je feray vo talent.”</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Ung panier a fait faire, bien tost et promptement.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>152</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Et cil dit qu'il l'ara a mouller et a per,</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Et tousjours luy respont: “Ja ne m'espousera.”</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Et le conte lui dit tousiours que si fera.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>160</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ung jour par ung matin, s'en vint devant l'abbé,</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Et lui dist sagement: “Sire, qui est mon pere?</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Et me dittes aussi nouvelles de ma mere.”</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>199</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Chacun si lui demande de quel terre il est né.</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Dist Gregoire: “Je suis d'un estrange contre,</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Et qui a ceste terre si laidement gastee.”</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>208</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>“Damoiseau,” dist la dame, “de quel terre estes né?”</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Dist Gregoire: “Je suis d'un estrange contré.”</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Vray Dieu, elle l'avoit en son ventre porté,</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>216</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Lors respondy Gregoire sans soy point delayer,</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Et a dit a la dame: “Je ferai vo tallent.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Faittes mander au conte sans nul delayement,</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>249</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Gregoire a abbatu le conte du cheval;</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>La dame qui le vit dist: “C'est coup de vassal!</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Je vous pry de bon cueur, doulz Pere espirital,</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>270</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Saches certainement que moult fut esperdu.</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Il a dit a Gregoire: “Je me tieng pour vaincu.</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Pour dieu, ne m'ochis mie, qui en croix fut pendu.”</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>295</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Et de sa gentil dame qui tant ot cler le vis.</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Doulcement luy a dit: “Vous estes mes amis</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Gentilz homs,” dit la dame, “s'espouser me voulez,</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>321</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Sa femme et sa mere l'aimoit de grant amour.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Un soir apres souper lui dist: “Mon chier seignour,</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Je vous perchoy trop fort pallir vostre coulour.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>339</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Or commenche a gregoire sa paine et son tourment.</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Si tost come le sceüt, il a dit: “Dieu, vray pere,</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Or suis je engendrez en la seur et du frere;</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>344</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Sa mere vint a luy, comme femme desvee,</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>En disant: “Mon enfant, quel povre destinee!</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>En mes flans vous portay, et m'avez espousee.”</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>355</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Pour leur seigneur Gregoire, qui s'en vouloit aler.</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Sa mere lui dist: “Filz, avecques vous yray.”</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>“Non ferez, dame, par la foy que vous doy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>373</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Et sa mere demeure, qui forment se demente,</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Et dist: “Las, que feray, la chetive dolente,</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Quat mon filz ma laisse mort vien et si mavance?</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>397</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Son estat lui a dit Gregoire maintenant.</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Et lui dist: “Je vouldroye avoir herbergement</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Auquel peusse servir mon Dieu benignement.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>409</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Qu'il auoit une roche dedens ysle de mer,</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Il lui dist doulcement: “Se m'y voulez mener,</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Mon cheval et ma robe vous vouldroye doner,</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>412</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Et trestout mon argent aussi vous donneray.”</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>L'oste luy respondi: “Et je vous y menray.</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Dittes moy vostre nom, s'il vous plaist, sans delay.”</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>430</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Si tost com il la tint, en la mer la jetta,</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Puis a dit a son hoste: “Je demouray decha.</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Jamais de cy n'yray, si sera retrouvee.”</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>495</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Dieu veult que pape soyes a Rome sans delay.”</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Saint Gregoire respond: “Par la foy qu'a Dieu doy,</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Jamais de ceste roche mie ne partiray,</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>500</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>“Beau sire veez la, n'en soyez en doubtance.”</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Quant il la vit si dist: “Dieu, qu'avez grant puissace!</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Or voy je bien qu'ay fait de mes maulx penitace.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>549</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>“Pere, plus grant pecheresse ne fut onc mais ouÿe.”</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Saint Gregoire l'apelle, et lui dist: “Doulce amye,</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Contez moy vostre estat maintenant, sans delay.”</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>551</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Contez moy vostre estat maintenant, sans delay.”</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Elle dist: “De mon frere oulz ung filz, par ma foy.</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Encores puis apres, mon enffant espousay.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>558</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>L'absolut et puis print la besongne a compter,</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Et dist: “Vous estes celle qui neuf mois me porta.”</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Quant elle l'entendi, grans joye en demena.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9115,7 +9946,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -9330,7 +10161,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -9423,239 +10254,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>line_n</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>prev_line</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>next_line</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>52</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Et lez mauvaise gent qui furent faux et vuit</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Disoient l'un a l'autre: “Certainement, je cuit</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Que il couchent ensemble et gisent per a per.”</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>68</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>L'anel print de son doy, en l'eaue l'a jecté</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Et puis dist en son cueur: “James ne rentreré</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Dedens l'archeveschié de la cité de Sens</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>90</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Saint Leu en l'ermitage s'est a genoulx getté</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Et dist: “Haulte roÿne, flour de virginité,</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Veuille prier ton filx, le roy de maiesté</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>120</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Moult bien le recongnut, puis prinst a lermoier.</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Puis au chanoignes dist: “Per Dieu le droiturier,</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Seigneurs, il m'est avis que c'est yci l'anel</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>128</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Leur afflictïon firent longuement et assés.</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Tant qu'une voix leur dist: “Seigneurs, or entendés,</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>C'est l'annel l'archevesque que Dieu vous a tranmis,</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>146</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Si n'aroy vraie ensengne du tres dolx roys des roys.”</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>L'un dez seigneurs lui dist: “Sire, il est bien drois.”</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Son ennel lui actaint et lui mist en son dois.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>152</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>“Seigneurs, comment se porte l'eglise et la gent?”</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Et il ont respondu: “Sire, moult flebement.</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Onques puis en nul lieu en vostre archeveschié</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>156</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Sire, pour Dieu mercy, prengne vous en pitié.”</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Et saint Leu respondi: “Puis qu'il vous plest j'iré.”</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>L'archevesque saint leu s'en vint tout droit a Sens</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>206</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Vers les cieulx regarda, si c'est a genoulx mys</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Et dist: “Pere puissant qui en la crois fu mis</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Au jour du vendredi et dessus mort souffris</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>222</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Li angres devant luy descendit des sains cieulx</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Qui lui dist par son non: “Leu, entend, le vray Diex</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Te ottroy ta requeste et encore arés miex</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>